--- a/data/misc.xlsx
+++ b/data/misc.xlsx
@@ -64,7 +64,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,7 +511,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -548,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7">
         <v>20</v>
@@ -565,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
         <v>20</v>
@@ -582,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>

--- a/data/misc.xlsx
+++ b/data/misc.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CACCAF-5FF2-3845-93DD-511935F0A698}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19480" yWindow="6640" windowWidth="28740" windowHeight="19900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Qty</t>
   </si>
@@ -52,12 +58,24 @@
   </si>
   <si>
     <t>Everything needed to cook and serve a meal.</t>
+  </si>
+  <si>
+    <t>Lightweight Bedroll</t>
+  </si>
+  <si>
+    <t>A comfortable place to sleep for the night, but it's not very warm</t>
+  </si>
+  <si>
+    <t>Three Season Tent</t>
+  </si>
+  <si>
+    <t>Comfortable shelter for two people.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -131,7 +149,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -155,6 +173,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -183,6 +211,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -507,24 +543,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="49.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -542,139 +578,174 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C4" s="3">
         <v>20</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D4" s="5">
+        <v>6</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="F6" s="8"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/misc.xlsx
+++ b/data/misc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CACCAF-5FF2-3845-93DD-511935F0A698}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD8EE1C-257D-914E-986A-D61640765740}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45060" yWindow="1040" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Qty</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>A comfortable place to sleep for the night, but it's not very warm</t>
-  </si>
-  <si>
-    <t>Three Season Tent</t>
-  </si>
-  <si>
-    <t>Comfortable shelter for two people.</t>
   </si>
 </sst>
 </file>
@@ -547,7 +541,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,23 +641,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7" s="8"/>
     </row>

--- a/data/misc.xlsx
+++ b/data/misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD8EE1C-257D-914E-986A-D61640765740}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC281FCF-3CDE-8442-A5F6-41728B5B7D8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45060" yWindow="1040" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Qty</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>A comfortable place to sleep for the night, but it's not very warm</t>
+  </si>
+  <si>
+    <t>Geiger Counter</t>
+  </si>
+  <si>
+    <t>Emits a clicking noise in the presense of ionizing radiation.</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -159,9 +165,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -541,7 +544,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,7 +553,7 @@
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -567,25 +570,25 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>15</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1"/>
@@ -597,13 +600,13 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>20</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -620,7 +623,7 @@
       <c r="D4" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -637,91 +640,92 @@
       <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16"/>
-      <c r="C16"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17"/>
-      <c r="C17"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18"/>
-      <c r="C18"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19"/>
-      <c r="C19"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20"/>
-      <c r="C20"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21"/>
-      <c r="C21"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22"/>
-      <c r="C22"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23"/>
-      <c r="C23"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24"/>
-      <c r="C24"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25"/>
-      <c r="C25"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26"/>
-      <c r="C26"/>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27"/>
-      <c r="C27"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28"/>
-      <c r="C28"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29"/>
-      <c r="C29"/>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30"/>
-      <c r="C30"/>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31"/>
-      <c r="C31"/>
       <c r="D31" s="6"/>
     </row>
   </sheetData>

--- a/data/misc.xlsx
+++ b/data/misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC281FCF-3CDE-8442-A5F6-41728B5B7D8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F173ECFA-AE1E-D441-91B9-94044FDACB29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45060" yWindow="1040" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Qty</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Emits a clicking noise in the presense of ionizing radiation.</t>
+  </si>
+  <si>
+    <t>Portable Radio</t>
+  </si>
+  <si>
+    <t>Comes with AM/FM and a pretty good volume for something so small</t>
   </si>
 </sst>
 </file>
@@ -544,7 +550,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>20</v>
@@ -662,6 +668,21 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/misc.xlsx
+++ b/data/misc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F173ECFA-AE1E-D441-91B9-94044FDACB29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2607C7-1051-324F-B1B1-570AB86D0011}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45060" yWindow="1040" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Qty</t>
   </si>
@@ -66,16 +66,10 @@
     <t>A comfortable place to sleep for the night, but it's not very warm</t>
   </si>
   <si>
-    <t>Geiger Counter</t>
-  </si>
-  <si>
-    <t>Emits a clicking noise in the presense of ionizing radiation.</t>
-  </si>
-  <si>
-    <t>Portable Radio</t>
-  </si>
-  <si>
-    <t>Comes with AM/FM and a pretty good volume for something so small</t>
+    <t>Pip-Boy 3000 Mark IV</t>
+  </si>
+  <si>
+    <t>Personal computer with 64K RAM and holotape reader.  Has radio, geiger counter, GPS and compass, and medical scanner.  Adapter plug allows interface with RobCo data port. +2 to Survival rolls to navigate to a known location.  +2 to healing rolls to diagnose sickness of wearer.</t>
   </si>
 </sst>
 </file>
@@ -155,7 +149,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -171,7 +165,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -547,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +552,7 @@
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="156" style="7" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -576,25 +569,25 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1"/>
@@ -612,7 +605,7 @@
       <c r="D3" s="5">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -629,7 +622,7 @@
       <c r="D4" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -646,7 +639,7 @@
       <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -658,32 +651,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>100</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16"/>
@@ -740,14 +723,6 @@
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-      <c r="D31" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/misc.xlsx
+++ b/data/misc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2607C7-1051-324F-B1B1-570AB86D0011}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404058A3-D525-B145-A1B5-D4B2DDFED2A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Qty</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Personal computer with 64K RAM and holotape reader.  Has radio, geiger counter, GPS and compass, and medical scanner.  Adapter plug allows interface with RobCo data port. +2 to Survival rolls to navigate to a known location.  +2 to healing rolls to diagnose sickness of wearer.</t>
+  </si>
+  <si>
+    <t>Optical Scope</t>
+  </si>
+  <si>
+    <t>When taking the aim action, ignore up to 6 points of penalty for Called Shots, Cover, Range, Scale, or Speed instead of the usual 4 points.  Requires calibration for each gun installed.</t>
+  </si>
+  <si>
+    <t>Missile</t>
+  </si>
+  <si>
+    <t>Manually guided missile. | * Hit: Medium Blast (pg 97) deals 3d6 damage, Evadable (pg 100). | * Raise: Hits a target with the missile directly for Medium Blast plus 2d6, hit target cannot evade.</t>
   </si>
 </sst>
 </file>
@@ -543,7 +555,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="9">
         <v>15</v>
@@ -648,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
         <v>800</v>
@@ -658,6 +670,40 @@
       </c>
       <c r="E6" s="7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>250</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>250</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/misc.xlsx
+++ b/data/misc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404058A3-D525-B145-A1B5-D4B2DDFED2A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457789ED-BB43-CC4F-B0B5-469D76D0155D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50520" yWindow="1780" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Qty</t>
   </si>
@@ -82,6 +82,36 @@
   </si>
   <si>
     <t>Manually guided missile. | * Hit: Medium Blast (pg 97) deals 3d6 damage, Evadable (pg 100). | * Raise: Hits a target with the missile directly for Medium Blast plus 2d6, hit target cannot evade.</t>
+  </si>
+  <si>
+    <t>Sniper Rifle Supressor</t>
+  </si>
+  <si>
+    <t>Reduces bullet velocity and noise.  Extreme range fire is no longer possible, but sound is reduced.</t>
+  </si>
+  <si>
+    <t>Cave Fungus</t>
+  </si>
+  <si>
+    <t>An enormous mushroom, reddish in color, earthy in taste.  It can be consumed for food, but is also a valuable component in many medicines</t>
+  </si>
+  <si>
+    <t>The blood of a nightstalker.  The blood has both regenerative and antivenemous qualities, when processed by someone with the know-how.</t>
+  </si>
+  <si>
+    <t>Bloatfly Gland</t>
+  </si>
+  <si>
+    <t>A source of the corroisive hydrochloric acid which bloatflies spit, as well as bloatfly pherimones.</t>
+  </si>
+  <si>
+    <t>Nightstalker Blood</t>
+  </si>
+  <si>
+    <t>Radscorpion Stinger</t>
+  </si>
+  <si>
+    <t>A stinger with venom still intact.  The venom is a potent neurotoxin, but when denatured through cooking it adds incredible flavor to food.</t>
   </si>
 </sst>
 </file>
@@ -552,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>800</v>
@@ -674,10 +704,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
         <v>250</v>
@@ -686,12 +716,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -700,15 +730,96 @@
         <v>250</v>
       </c>
       <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>250</v>
+      </c>
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-      <c r="D14" s="6"/>
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15"/>
@@ -769,6 +880,10 @@
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30"/>
+      <c r="D30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/misc.xlsx
+++ b/data/misc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457789ED-BB43-CC4F-B0B5-469D76D0155D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2153B51-0FAD-904A-B0C0-DFCCC6EB721B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50520" yWindow="1780" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Qty</t>
   </si>
@@ -112,6 +112,51 @@
   </si>
   <si>
     <t>A stinger with venom still intact.  The venom is a potent neurotoxin, but when denatured through cooking it adds incredible flavor to food.</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Platinum Record</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Repair Kit</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>A stash of d100 caps</t>
+  </si>
+  <si>
+    <t>A stash of 3d6 x 100 + d100 caps</t>
+  </si>
+  <si>
+    <t>Small Cap Stash</t>
+  </si>
+  <si>
+    <t>Large Cap Stash</t>
+  </si>
+  <si>
+    <t>An LP of songs by Richard Cheese</t>
+  </si>
+  <si>
+    <t>An LP of songs by Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>An LP of songs by Willie Nelson</t>
+  </si>
+  <si>
+    <t>An LP of songs by Postmodern Jukebox</t>
+  </si>
+  <si>
+    <t>An LP of songs by The King Himself</t>
+  </si>
+  <si>
+    <t>Contains all the necessary tools for basic field construction and repair of weapons, armor, and equipment</t>
   </si>
 </sst>
 </file>
@@ -191,7 +236,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -206,7 +251,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -582,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,7 +638,7 @@
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="156" style="7" customWidth="1"/>
+    <col min="5" max="5" width="156" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -611,25 +655,25 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
         <v>15</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1"/>
@@ -647,7 +691,7 @@
       <c r="D3" s="5">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -664,7 +708,7 @@
       <c r="D4" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -681,7 +725,7 @@
       <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -698,192 +742,264 @@
       <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
         <v>250</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>250</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>250</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>250</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>500</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>100</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>100</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>100</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>100</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>50</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
         <v>30</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
         <v>4</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="D30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/misc.xlsx
+++ b/data/misc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2153B51-0FAD-904A-B0C0-DFCCC6EB721B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14E2A75-A328-2D46-BA26-AF839CB54DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="700" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Qty</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t>Contains all the necessary tools for basic field construction and repair of weapons, armor, and equipment</t>
+  </si>
+  <si>
+    <t>Tent</t>
+  </si>
+  <si>
+    <t>Portable popup tent.  Grants shelter from rain and cold, protection from small pests.  Sleeps one comfortably, two in a punch.</t>
+  </si>
+  <si>
+    <t>Electric Guitar</t>
+  </si>
+  <si>
+    <t>Powered instrument doesn't mean you will play well, but you can definitely play loud.</t>
+  </si>
+  <si>
+    <t>A "Best of Smooth Jazz" collection.</t>
+  </si>
+  <si>
+    <t>A "Best of Swing" collection.</t>
   </si>
 </sst>
 </file>
@@ -626,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,7 +769,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
         <v>100</v>
@@ -761,6 +779,40 @@
       </c>
       <c r="E7" s="6" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -814,190 +866,224 @@
         <v>18</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>500</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>100</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>100</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>100</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>100</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>50</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3">
-        <v>5</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
-        <v>30</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
     </row>
